--- a/files/Lista Estudiantes Procesamiento.xlsx
+++ b/files/Lista Estudiantes Procesamiento.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="183">
   <si>
     <t>RUT</t>
   </si>
@@ -549,17 +549,48 @@
   </si>
   <si>
     <t>DIRECCION EMAIL</t>
+  </si>
+  <si>
+    <t>Pino</t>
+  </si>
+  <si>
+    <t>Jáuregui</t>
+  </si>
+  <si>
+    <t>José Manuel</t>
+  </si>
+  <si>
+    <t>jose.pino.jauregui@gmail.com</t>
+  </si>
+  <si>
+    <t>18461449-9</t>
+  </si>
+  <si>
+    <t>Pino Jáuregui José Manuel</t>
+  </si>
+  <si>
+    <t>Licenc. En ciencias politicas y relaciones internacionales</t>
+  </si>
+  <si>
+    <t>josemanuel.pino@uc.cl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -714,22 +745,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -739,45 +770,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -994,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L990"/>
+  <dimension ref="A1:L991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1045,7 @@
     <col min="6" max="6" width="14.42578125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32.140625" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" customWidth="1"/>
@@ -1778,38 +1813,38 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="8">
-        <v>18175159</v>
+        <v>18461449</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>171</v>
+        <v>180</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>182</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>10</v>
+        <v>178</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>181</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>101</v>
@@ -1820,31 +1855,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="8">
-        <v>20062399</v>
+        <v>18175159</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K22" s="18" t="s">
         <v>10</v>
@@ -1858,31 +1893,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="8">
-        <v>16659617</v>
+        <v>20062399</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K23" s="18" t="s">
         <v>10</v>
@@ -1891,7 +1926,44 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8">
+        <v>16659617</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2858,6 +2930,7 @@
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
